--- a/figures_tables/Table1_formatted.xlsx
+++ b/figures_tables/Table1_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahrempel/My Drive/Research_Archives/ecological_drivers_corallivory/figures_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8780C7F3-09AE-4C43-AD29-639E687EAC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D119479-84D2-0741-9574-C6112CDDDF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="3780" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="14" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>Mean scar area</t>
   </si>
   <si>
-    <t>Colony area bitten</t>
+    <t>Colony area predated</t>
   </si>
 </sst>
 </file>
@@ -607,8 +607,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="hair">
-        <color theme="1"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,119 +671,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1149,107 +1149,107 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="2.1640625" customWidth="1"/>
-    <col min="4" max="4" width="6" style="4" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="4.5" customWidth="1"/>
     <col min="6" max="6" width="2.1640625" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.1640625" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.1640625" style="4" customWidth="1"/>
     <col min="11" max="11" width="5.5" customWidth="1"/>
     <col min="12" max="12" width="2.1640625" customWidth="1"/>
     <col min="13" max="13" width="4.6640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.83203125" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" customWidth="1"/>
     <col min="15" max="15" width="1.33203125" customWidth="1"/>
-    <col min="16" max="16" width="6.1640625" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" customWidth="1"/>
     <col min="17" max="19" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="17">
         <v>0.8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="28">
         <v>0.4</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="9">
         <v>18</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="39">
+      <c r="F2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="29">
         <v>3.7</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="17">
         <v>0.9</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="38">
+      <c r="J2" s="28">
         <v>0.2</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="26">
         <v>0.33300000000000002</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="27">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="N2" s="36">
+      <c r="N2" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="35">
+      <c r="P2" s="25">
         <v>1E-3</v>
       </c>
     </row>
@@ -1257,49 +1257,49 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="24">
         <v>3.9</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="32">
+      <c r="C3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="22">
         <v>1</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="17">
         <v>2.8</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="5">
         <v>1.9</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="21">
         <v>121.7</v>
       </c>
-      <c r="I3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="25">
+      <c r="I3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="15">
         <v>38.9</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="20">
         <v>0.63</v>
       </c>
-      <c r="L3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="28">
+      <c r="L3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="18">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="17">
         <v>0.55300000000000005</v>
       </c>
-      <c r="O3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="25">
+      <c r="O3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="15">
         <v>0.14699999999999999</v>
       </c>
     </row>
@@ -1307,99 +1307,99 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="12">
         <v>2.4</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="C4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13">
         <v>0.5</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="12">
         <v>7.2</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="20">
+      <c r="F4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10">
         <v>1.3</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="9">
         <v>1.4</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="5">
         <v>0.7</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="6">
         <v>1.17</v>
       </c>
-      <c r="L4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="17">
+      <c r="L4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="7">
         <v>0.44600000000000001</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="6">
         <v>0.01</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P4" s="5">
         <v>2E-3</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="34">
         <v>7.6</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="36">
         <v>0.5</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="34">
         <v>23.3</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="F5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="36">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="37">
         <v>2</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="I5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="39">
         <v>0.8</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="40">
         <v>1.9930000000000001</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="8">
+      <c r="L5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="36">
         <v>0.79100000000000004</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="40">
         <v>1.4E-2</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="5">
+      <c r="O5" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="42">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
